--- a/src/test/resources/Data/ShuuemuraTestData.xlsx
+++ b/src/test/resources/Data/ShuuemuraTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D646FAC2-09B0-4FF6-BEE5-1B48D279EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC1250E-2204-4EBB-89E7-587F8E850954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId4"/>
-    <sheet name="plp_pdp_testdata" sheetId="5" r:id="rId5"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId3"/>
+    <sheet name="plp_pdp_testdata" sheetId="5" r:id="rId4"/>
+    <sheet name="ba_credentials" sheetId="3" r:id="rId5"/>
     <sheet name="cms_configuration" sheetId="6" r:id="rId6"/>
     <sheet name="data_configuration" sheetId="7" r:id="rId7"/>
     <sheet name="member_data" sheetId="8" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
   <si>
     <t>segment</t>
   </si>
@@ -109,6 +109,210 @@
     <t>4BGP*Jdg&amp;B</t>
   </si>
   <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_year</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>mars_Id</t>
+  </si>
+  <si>
+    <t>TestXYZ</t>
+  </si>
+  <si>
+    <t>TestABC</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>testmail</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>45CA0022782</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>40C80023266</t>
+  </si>
+  <si>
+    <t>40C80023267</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>40ZY3073605</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>product2</t>
+  </si>
+  <si>
+    <t>brow sword refill</t>
+  </si>
+  <si>
+    <t>kushi brow m stone gray</t>
+  </si>
+  <si>
+    <t>the lightbulb face powder</t>
+  </si>
+  <si>
+    <t>stage performer invisible powder</t>
+  </si>
+  <si>
+    <t>porefinist gentle foaming cleansing water 50ml</t>
+  </si>
+  <si>
+    <t>skin perfector makeup artist oil</t>
+  </si>
+  <si>
     <t>P40010031</t>
   </si>
   <si>
@@ -124,195 +328,6 @@
     <t>P40050725</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_year</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>TestXYZ</t>
-  </si>
-  <si>
-    <t>TestABC</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>testmail</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>サンプル</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>FE243</t>
-  </si>
-  <si>
-    <t>suzytoure@gmail.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>45CA0022781</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
-    <t>FE244</t>
-  </si>
-  <si>
-    <t>FE245</t>
-  </si>
-  <si>
-    <t>product1</t>
-  </si>
-  <si>
-    <t>product2</t>
-  </si>
-  <si>
-    <t>brow sword refill</t>
-  </si>
-  <si>
-    <t>kushi brow m stone gray</t>
-  </si>
-  <si>
-    <t>the lightbulb face powder</t>
-  </si>
-  <si>
-    <t>stage performer invisible powder</t>
-  </si>
-  <si>
-    <t>porefinist gentle foaming cleansing water 50ml</t>
-  </si>
-  <si>
-    <t>skin perfector makeup artist oil</t>
-  </si>
-  <si>
     <t>dashboard</t>
   </si>
   <si>
@@ -346,24 +361,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
     <t>search_0</t>
   </si>
   <si>
@@ -379,30 +376,30 @@
     <t>search_4</t>
   </si>
   <si>
+    <t>mars id</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
     <t>Mars ID</t>
   </si>
   <si>
-    <t>First Name</t>
+    <t>mars Id</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>mars Id</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National Id</t>
+    <t>Mobile Number</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Lucid</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
     <t>mars Id_dashboard</t>
   </si>
   <si>
+    <t>mars id_dashboard</t>
+  </si>
+  <si>
     <t>Lucid_dashboard</t>
   </si>
   <si>
@@ -445,35 +445,26 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>45H10041658</t>
+    <t>403D0001455</t>
+  </si>
+  <si>
+    <t>C70000000055715</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>403D0001455</t>
-  </si>
-  <si>
-    <t>C70000000055715</t>
-  </si>
-  <si>
-    <t>45Z20004985</t>
-  </si>
-  <si>
     <t>45WM6000403</t>
   </si>
   <si>
     <t>45j50007894</t>
-  </si>
-  <si>
-    <t>453L0803539</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,25 +550,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -593,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,7 +592,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -989,7 +967,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,113 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:AG10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:AT18"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,121 +1095,125 @@
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>98765</v>
@@ -1345,40 +1225,40 @@
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I2" s="4">
         <v>1994</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M2" s="4">
         <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P2" s="4">
         <v>123456</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T2">
         <v>4786512</v>
@@ -1387,10 +1267,10 @@
         <v>720123</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X2">
         <v>8280004</v>
@@ -1402,39 +1282,42 @@
         <v>852</v>
       </c>
       <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5">
         <v>9876543212</v>
@@ -1446,46 +1329,46 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I3" s="4">
         <v>1994</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M3" s="4">
         <v>11</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P3" s="4">
         <v>123456</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="R3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="X3">
         <v>8280004</v>
@@ -1497,39 +1380,42 @@
         <v>852</v>
       </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="AF3" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5">
         <v>9876543212</v>
@@ -1541,46 +1427,46 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I4" s="4">
         <v>1994</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M4" s="4">
         <v>11</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P4" s="4">
         <v>123456</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="R4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="X4">
         <v>8280004</v>
@@ -1592,28 +1478,31 @@
         <v>852</v>
       </c>
       <c r="AA4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AF4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AE4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
@@ -1633,23 +1522,23 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
     </row>
@@ -1664,7 +1553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3956524-20FE-4BB2-B7EC-67D5409496D9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1727,11 +1616,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9DA862-8100-4B9F-A9C3-21DD2631AB98}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1740,31 +1733,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1772,287 +1765,95 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF16D8E-69DB-408D-B281-A6AAC1B7AD90}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2080,19 +1881,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2103,92 +1904,32 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C4" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13734B42-D985-46FF-AF01-F6916E17FA24}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2210,72 +1951,78 @@
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>133</v>
@@ -2289,31 +2036,43 @@
       <c r="F2" t="s">
         <v>136</v>
       </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
       <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
         <v>134</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>134</v>
       </c>
-      <c r="N2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>133</v>
@@ -2325,41 +2084,47 @@
         <v>135</v>
       </c>
       <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
         <v>134</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>134</v>
       </c>
-      <c r="N3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>133</v>
       </c>
       <c r="D4" t="s">
@@ -2368,287 +2133,46 @@
       <c r="E4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
         <v>140</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="L4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" t="s">
         <v>134</v>
       </c>
-      <c r="I4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>135</v>
-      </c>
-      <c r="O4" t="s">
-        <v>140</v>
       </c>
       <c r="P4" t="s">
         <v>139</v>
       </c>
-      <c r="Q4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{4B982D95-3A73-46CB-AD2A-F0FB22F79C6B}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{63540E37-AFE0-47C9-BF81-D5D34DCF80CA}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{F30804A3-C5CA-4E9D-B9A0-59D8223D9705}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{9B340DEA-F70E-4266-8A68-38C015C10240}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{AC716197-637F-4163-8C87-7500126C4296}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{3FE76838-A058-4380-98F3-4AE8463EE988}"/>
-    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{9E615E98-D4B7-47C8-990D-E410BF3F572F}"/>
-    <hyperlink ref="K6" r:id="rId8" xr:uid="{161FC188-491A-437C-B364-14D163F7BECF}"/>
-    <hyperlink ref="K5" r:id="rId9" xr:uid="{1D295A7C-FCB8-4711-AB12-02986A82D570}"/>
-    <hyperlink ref="K8" r:id="rId10" xr:uid="{CDD86FEB-028C-4C11-A2B5-888EE99C6C51}"/>
-    <hyperlink ref="K10" r:id="rId11" xr:uid="{D765955E-5F31-4B87-A7A2-C37CF413D978}"/>
-    <hyperlink ref="K7" r:id="rId12" xr:uid="{0D97470C-F8D4-47FC-8F71-521DF77B5D04}"/>
-    <hyperlink ref="K9" r:id="rId13" xr:uid="{A5E61E10-BE9B-4220-AD91-6D5850FA9CE8}"/>
-    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{AC7A7D68-8608-4E64-8A79-0402FC011E97}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4B982D95-3A73-46CB-AD2A-F0FB22F79C6B}"/>
+    <hyperlink ref="B2:B3" r:id="rId2" xr:uid="{9E615E98-D4B7-47C8-990D-E410BF3F572F}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{161FC188-491A-437C-B364-14D163F7BECF}"/>
+    <hyperlink ref="L2:L3" r:id="rId4" xr:uid="{AC7A7D68-8608-4E64-8A79-0402FC011E97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
